--- a/02_設計/00_サンプル/画面遷移図.xlsx
+++ b/02_設計/00_サンプル/画面遷移図.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f081ddaca2e466ec/ドキュメント/2021年技術研修/設計書テンプレート/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="325" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{913841B9-6847-4B71-A556-1A108732516D}"/>
+  <xr:revisionPtr revIDLastSave="354" documentId="11_AD4D066CA252ABDACC1048E061D0D8A073EEDF52" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E5B16B4C-63A1-4972-AAD5-FB950E8FBC7E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
@@ -78,13 +78,6 @@
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>概要</t>
-    <rPh sb="0" eb="2">
-      <t>ガイヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -155,48 +148,12 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>画面遷移ID</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>画面遷移名称</t>
-    <rPh sb="0" eb="2">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>センイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>メイショウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>画面遷移図</t>
     <rPh sb="0" eb="4">
       <t>ガメンセンイ</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>ズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ログイン画面からメニュー選択画面に遷移</t>
-    <rPh sb="4" eb="6">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="12" eb="16">
-      <t>センタクガメン</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -208,14 +165,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>メニュー選択画面遷移</t>
-    <rPh sb="4" eb="10">
-      <t>センタクガメンセンイ</t>
+    <t>画面名</t>
+    <rPh sb="0" eb="3">
+      <t>ガメンメイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>A0-001-002</t>
+    <t>画面ID</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>S0-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン画面</t>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画面名</t>
+    <rPh sb="0" eb="2">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>補足</t>
+    <rPh sb="0" eb="2">
+      <t>ホソク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -619,1245 +607,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="6" name="グループ化 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F8B93C-BC8F-4881-8820-D26FD81DF75C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3933824" y="1523999"/>
-          <a:ext cx="1943101" cy="1600201"/>
-          <a:chOff x="3562349" y="1628774"/>
-          <a:chExt cx="1943101" cy="1600201"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="3" name="二等辺三角形 2">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78C03C72-201B-4AE7-BAB9-D0E86017FF1A}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3562350" y="2771775"/>
-            <a:ext cx="1943100" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="4" name="フレーム 3">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEA955F-677E-431E-8E05-E8EAEF7E6B89}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3562349" y="1628774"/>
-            <a:ext cx="1933575" cy="1133475"/>
-          </a:xfrm>
-          <a:prstGeom prst="frame">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="5" name="テキスト ボックス 4">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{241E0399-1E0E-494B-AE07-B758532B48BC}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3695701" y="1781175"/>
-            <a:ext cx="1666874" cy="838200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>ログイン画面</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-          </a:p>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-              <a:t>S0-001</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>）</a:t>
-            </a:r>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{808B84C9-B04D-4D53-8667-0ABCDAA0B51A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4305300" y="1200150"/>
-          <a:ext cx="1095375" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>《</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>開始点</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-            <a:t>》</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>47624</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:grpSp>
-      <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="8" name="グループ化 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48E48079-CD11-4126-A32C-818DD044D7A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGrpSpPr/>
-      </xdr:nvGrpSpPr>
-      <xdr:grpSpPr>
-        <a:xfrm>
-          <a:off x="3933824" y="5153024"/>
-          <a:ext cx="1943101" cy="1600201"/>
-          <a:chOff x="3562349" y="1628774"/>
-          <a:chExt cx="1943101" cy="1600201"/>
-        </a:xfrm>
-      </xdr:grpSpPr>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="9" name="二等辺三角形 8">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BBDF057-75E9-4E44-8F29-26D38CBAE378}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3562350" y="2771775"/>
-            <a:ext cx="1943100" cy="457200"/>
-          </a:xfrm>
-          <a:prstGeom prst="triangle">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="10" name="フレーム 9">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{547F7589-A9A7-4728-8FC4-D69BE121E31D}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3562349" y="1628774"/>
-            <a:ext cx="1933575" cy="1133475"/>
-          </a:xfrm>
-          <a:prstGeom prst="frame">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:ln>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="2">
-            <a:schemeClr val="accent1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:lnRef>
-          <a:fillRef idx="1">
-            <a:schemeClr val="accent1"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:schemeClr val="accent1"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="lt1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l"/>
-            <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-      <xdr:sp macro="" textlink="">
-        <xdr:nvSpPr>
-          <xdr:cNvPr id="11" name="テキスト ボックス 10">
-            <a:extLst>
-              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4A33BF-4D93-43E6-ACA9-A9EFE29839B3}"/>
-              </a:ext>
-            </a:extLst>
-          </xdr:cNvPr>
-          <xdr:cNvSpPr txBox="1"/>
-        </xdr:nvSpPr>
-        <xdr:spPr>
-          <a:xfrm>
-            <a:off x="3695701" y="1781175"/>
-            <a:ext cx="1666874" cy="838200"/>
-          </a:xfrm>
-          <a:prstGeom prst="rect">
-            <a:avLst/>
-          </a:prstGeom>
-          <a:noFill/>
-        </xdr:spPr>
-        <xdr:style>
-          <a:lnRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:lnRef>
-          <a:fillRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:fillRef>
-          <a:effectRef idx="0">
-            <a:scrgbClr r="0" g="0" b="0"/>
-          </a:effectRef>
-          <a:fontRef idx="minor">
-            <a:schemeClr val="tx1"/>
-          </a:fontRef>
-        </xdr:style>
-        <xdr:txBody>
-          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr">
-            <a:noAutofit/>
-          </a:bodyPr>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="ctr"/>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-              <a:t>メニュー選択画面</a:t>
-            </a:r>
-            <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
-          </a:p>
-          <a:p>
-            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-              <a:lnSpc>
-                <a:spcPct val="100000"/>
-              </a:lnSpc>
-              <a:spcBef>
-                <a:spcPts val="0"/>
-              </a:spcBef>
-              <a:spcAft>
-                <a:spcPts val="0"/>
-              </a:spcAft>
-              <a:buClrTx/>
-              <a:buSzTx/>
-              <a:buFontTx/>
-              <a:buNone/>
-              <a:tabLst/>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>（</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>S0-002</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1400">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-                <a:effectLst/>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:rPr>
-              <a:t>）</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="ja-JP" sz="1400">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </xdr:txBody>
-      </xdr:sp>
-    </xdr:grpSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="四角形: 角を丸くする 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4339F52-E56F-412D-9B94-41A071567580}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4048125" y="3924300"/>
-          <a:ext cx="1704975" cy="581026"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>検索処理</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="矢印: 五方向 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B61617-EBDD-4A56-8288-883F60438A88}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4529138" y="7939089"/>
-          <a:ext cx="723900" cy="1152525"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>S0-003</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7F1BA10-AF01-45A4-AFEF-4BA86BA42FD4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="9" idx="3"/>
-          <a:endCxn id="13" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4891088" y="6753225"/>
-          <a:ext cx="14287" cy="1400177"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>42863</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3CF1C6-51CD-4084-974D-768434FE2255}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="3" idx="3"/>
-          <a:endCxn id="12" idx="0"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4900613" y="3124200"/>
-          <a:ext cx="4762" cy="800100"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="ひし形 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D16753-BB87-4BE0-B0F6-6296C2798651}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6457950" y="3971925"/>
-          <a:ext cx="1914525" cy="485775"/>
-        </a:xfrm>
-        <a:prstGeom prst="diamond">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>71438</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA209CEC-A07C-4B49-939D-D6FF908E3FF8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="12" idx="3"/>
-          <a:endCxn id="20" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5753100" y="4214813"/>
-          <a:ext cx="704850" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="32" name="コネクタ: カギ線 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D23C844A-E815-41F3-942F-FCCC796DF74B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="0"/>
-          <a:endCxn id="4" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000" flipV="1">
-          <a:off x="5700712" y="2257424"/>
-          <a:ext cx="1881188" cy="1547814"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>209551</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="テキスト ボックス 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{342242C3-BB40-4795-BEA5-99B171682EE0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7334251" y="2990850"/>
-          <a:ext cx="1133474" cy="361950"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
-            <a:t>［エラー］</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>290513</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>204787</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="35" name="コネクタ: カギ線 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C531087A-2209-4B70-A751-A6446BA0700F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="20" idx="2"/>
-          <a:endCxn id="10" idx="3"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="6010275" y="4314824"/>
-          <a:ext cx="1262062" cy="1547814"/>
-        </a:xfrm>
-        <a:prstGeom prst="bentConnector2">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>104773</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="テキスト ボックス 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF4A5EF1-CE9C-4CEB-867A-F7FFD18810D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3505200" y="4476748"/>
-          <a:ext cx="2809875" cy="657227"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>ログイン</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>ID</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>とパスワードを社員情報テーブルから検索</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>285751</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="テキスト ボックス 38">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87111D19-6DD5-4C78-BCBC-25C6FC37A15E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6057901" y="5714999"/>
-          <a:ext cx="1352550" cy="304802"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>該当情報を検索</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2448,145 +1197,6 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>161927</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="矢印: 五方向 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C710F4A-1131-464D-B7B2-48BF8CAEE90A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="4584383" y="7927659"/>
-          <a:ext cx="723900" cy="1163955"/>
-        </a:xfrm>
-        <a:prstGeom prst="homePlate">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="vert270" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>S0-003</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>33338</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>123827</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線矢印コネクタ 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039680D1-EEB7-41E4-9051-4CD8665AE0FC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="12" idx="1"/>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4948238" y="6747510"/>
-          <a:ext cx="14287" cy="1400177"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:sysClr val="windowText" lastClr="000000"/>
-          </a:solidFill>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
@@ -3367,7 +1977,7 @@
   <sheetData>
     <row r="11" spans="5:5" ht="58.2">
       <c r="E11" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -4048,6 +2658,102 @@
     </row>
   </sheetData>
   <mergeCells count="108">
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="B1:L1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="O1:P1"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="O2:P2"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="M7:N7"/>
+    <mergeCell ref="O7:P7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="M5:N5"/>
+    <mergeCell ref="O5:P5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="B12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="B9:L9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="B10:L10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="B15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:P15"/>
+    <mergeCell ref="B16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="B14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="B19:L19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:L20"/>
+    <mergeCell ref="M20:N20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B17:L17"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:L21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:L22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:P27"/>
+    <mergeCell ref="B28:L28"/>
+    <mergeCell ref="M28:N28"/>
+    <mergeCell ref="O28:P28"/>
+    <mergeCell ref="B25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:L26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="B31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="O31:P31"/>
+    <mergeCell ref="B32:L32"/>
+    <mergeCell ref="M32:N32"/>
+    <mergeCell ref="O32:P32"/>
+    <mergeCell ref="B29:L29"/>
+    <mergeCell ref="M29:N29"/>
+    <mergeCell ref="O29:P29"/>
+    <mergeCell ref="B30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="O30:P30"/>
     <mergeCell ref="B35:L35"/>
     <mergeCell ref="M35:N35"/>
     <mergeCell ref="O35:P35"/>
@@ -4060,102 +2766,6 @@
     <mergeCell ref="B34:L34"/>
     <mergeCell ref="M34:N34"/>
     <mergeCell ref="O34:P34"/>
-    <mergeCell ref="B31:L31"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="O31:P31"/>
-    <mergeCell ref="B32:L32"/>
-    <mergeCell ref="M32:N32"/>
-    <mergeCell ref="O32:P32"/>
-    <mergeCell ref="B29:L29"/>
-    <mergeCell ref="M29:N29"/>
-    <mergeCell ref="O29:P29"/>
-    <mergeCell ref="B30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="O30:P30"/>
-    <mergeCell ref="B27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:P27"/>
-    <mergeCell ref="B28:L28"/>
-    <mergeCell ref="M28:N28"/>
-    <mergeCell ref="O28:P28"/>
-    <mergeCell ref="B25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:L26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="B23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:L21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:L22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:L19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:L20"/>
-    <mergeCell ref="M20:N20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B17:L17"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:P15"/>
-    <mergeCell ref="B16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="B13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="B14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="B11:L11"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="B12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="B9:L9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
-    <mergeCell ref="B10:L10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="M7:N7"/>
-    <mergeCell ref="O7:P7"/>
-    <mergeCell ref="B8:L8"/>
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="M5:N5"/>
-    <mergeCell ref="O5:P5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="B3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="B1:L1"/>
-    <mergeCell ref="M1:N1"/>
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="B2:L2"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="O2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4168,17 +2778,17 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ40"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
-      <selection sqref="A1:L3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.296875" defaultRowHeight="18"/>
   <sheetData>
     <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
       <c r="A1" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -4192,7 +2802,7 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
@@ -4243,7 +2853,7 @@
       <c r="K2" s="26"/>
       <c r="L2" s="26"/>
       <c r="M2" s="20" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="20"/>
@@ -4294,7 +2904,7 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="30" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N3" s="30"/>
       <c r="O3" s="31"/>
@@ -4330,7 +2940,7 @@
     <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -5906,94 +4516,49 @@
       <c r="AQ39" s="7"/>
     </row>
     <row r="40" spans="1:43">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="7"/>
-    </row>
-    <row r="41" spans="1:43">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="9"/>
-      <c r="AL41" s="9"/>
-      <c r="AM41" s="9"/>
-      <c r="AN41" s="9"/>
-      <c r="AO41" s="9"/>
-      <c r="AP41" s="9"/>
-      <c r="AQ41" s="10"/>
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+      <c r="V40" s="9"/>
+      <c r="W40" s="9"/>
+      <c r="X40" s="9"/>
+      <c r="Y40" s="9"/>
+      <c r="Z40" s="9"/>
+      <c r="AA40" s="9"/>
+      <c r="AB40" s="9"/>
+      <c r="AC40" s="9"/>
+      <c r="AD40" s="9"/>
+      <c r="AE40" s="9"/>
+      <c r="AF40" s="9"/>
+      <c r="AG40" s="9"/>
+      <c r="AH40" s="9"/>
+      <c r="AI40" s="9"/>
+      <c r="AJ40" s="9"/>
+      <c r="AK40" s="9"/>
+      <c r="AL40" s="9"/>
+      <c r="AM40" s="9"/>
+      <c r="AN40" s="9"/>
+      <c r="AO40" s="9"/>
+      <c r="AP40" s="9"/>
+      <c r="AQ40" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -6017,7 +4582,6 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="65" fitToHeight="0" orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6027,7 +4591,7 @@
     <tabColor theme="0" tint="-0.499984740745262"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AQ41"/>
+  <dimension ref="A1:AQ32"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="80" workbookViewId="0">
       <selection sqref="A1:L3"/>
@@ -6037,7 +4601,7 @@
   <sheetData>
     <row r="1" spans="1:43" ht="18.600000000000001" thickTop="1">
       <c r="A1" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="24"/>
       <c r="C1" s="24"/>
@@ -6051,13 +4615,13 @@
       <c r="K1" s="24"/>
       <c r="L1" s="24"/>
       <c r="M1" s="18" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N1" s="18"/>
       <c r="O1" s="18"/>
       <c r="P1" s="18"/>
       <c r="Q1" s="18" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="R1" s="18"/>
       <c r="S1" s="18"/>
@@ -6085,7 +4649,7 @@
       </c>
       <c r="AJ1" s="18"/>
       <c r="AK1" s="18" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL1" s="18"/>
       <c r="AM1" s="18"/>
@@ -6114,7 +4678,7 @@
       <c r="O2" s="20"/>
       <c r="P2" s="20"/>
       <c r="Q2" s="20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="R2" s="20"/>
       <c r="S2" s="20"/>
@@ -6142,7 +4706,7 @@
       </c>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
@@ -6165,12 +4729,10 @@
       <c r="K3" s="28"/>
       <c r="L3" s="28"/>
       <c r="M3" s="30" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N3" s="30"/>
-      <c r="O3" s="31" t="s">
-        <v>22</v>
-      </c>
+      <c r="O3" s="31"/>
       <c r="P3" s="31"/>
       <c r="Q3" s="31"/>
       <c r="R3" s="31"/>
@@ -6203,7 +4765,7 @@
     <row r="4" spans="1:43" ht="18.600000000000001" thickTop="1"/>
     <row r="5" spans="1:43">
       <c r="A5" s="15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -7419,454 +5981,49 @@
       <c r="AQ31" s="7"/>
     </row>
     <row r="32" spans="1:43">
-      <c r="A32" s="5"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="6"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="6"/>
-      <c r="K32" s="6"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-      <c r="N32" s="6"/>
-      <c r="O32" s="6"/>
-      <c r="P32" s="6"/>
-      <c r="Q32" s="6"/>
-      <c r="R32" s="6"/>
-      <c r="S32" s="6"/>
-      <c r="T32" s="6"/>
-      <c r="U32" s="6"/>
-      <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="6"/>
-      <c r="Y32" s="6"/>
-      <c r="Z32" s="6"/>
-      <c r="AA32" s="6"/>
-      <c r="AB32" s="6"/>
-      <c r="AC32" s="6"/>
-      <c r="AD32" s="6"/>
-      <c r="AE32" s="6"/>
-      <c r="AF32" s="6"/>
-      <c r="AG32" s="6"/>
-      <c r="AH32" s="6"/>
-      <c r="AI32" s="6"/>
-      <c r="AJ32" s="6"/>
-      <c r="AK32" s="6"/>
-      <c r="AL32" s="6"/>
-      <c r="AM32" s="6"/>
-      <c r="AN32" s="6"/>
-      <c r="AO32" s="6"/>
-      <c r="AP32" s="6"/>
-      <c r="AQ32" s="7"/>
-    </row>
-    <row r="33" spans="1:43">
-      <c r="A33" s="5"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6"/>
-      <c r="J33" s="6"/>
-      <c r="K33" s="6"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-      <c r="N33" s="6"/>
-      <c r="O33" s="6"/>
-      <c r="P33" s="6"/>
-      <c r="Q33" s="6"/>
-      <c r="R33" s="6"/>
-      <c r="S33" s="6"/>
-      <c r="T33" s="6"/>
-      <c r="U33" s="6"/>
-      <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="6"/>
-      <c r="Y33" s="6"/>
-      <c r="Z33" s="6"/>
-      <c r="AA33" s="6"/>
-      <c r="AB33" s="6"/>
-      <c r="AC33" s="6"/>
-      <c r="AD33" s="6"/>
-      <c r="AE33" s="6"/>
-      <c r="AF33" s="6"/>
-      <c r="AG33" s="6"/>
-      <c r="AH33" s="6"/>
-      <c r="AI33" s="6"/>
-      <c r="AJ33" s="6"/>
-      <c r="AK33" s="6"/>
-      <c r="AL33" s="6"/>
-      <c r="AM33" s="6"/>
-      <c r="AN33" s="6"/>
-      <c r="AO33" s="6"/>
-      <c r="AP33" s="6"/>
-      <c r="AQ33" s="7"/>
-    </row>
-    <row r="34" spans="1:43">
-      <c r="A34" s="5"/>
-      <c r="B34" s="6"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
-      <c r="Y34" s="6"/>
-      <c r="Z34" s="6"/>
-      <c r="AA34" s="6"/>
-      <c r="AB34" s="6"/>
-      <c r="AC34" s="6"/>
-      <c r="AD34" s="6"/>
-      <c r="AE34" s="6"/>
-      <c r="AF34" s="6"/>
-      <c r="AG34" s="6"/>
-      <c r="AH34" s="6"/>
-      <c r="AI34" s="6"/>
-      <c r="AJ34" s="6"/>
-      <c r="AK34" s="6"/>
-      <c r="AL34" s="6"/>
-      <c r="AM34" s="6"/>
-      <c r="AN34" s="6"/>
-      <c r="AO34" s="6"/>
-      <c r="AP34" s="6"/>
-      <c r="AQ34" s="7"/>
-    </row>
-    <row r="35" spans="1:43">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
-      <c r="AB35" s="6"/>
-      <c r="AC35" s="6"/>
-      <c r="AD35" s="6"/>
-      <c r="AE35" s="6"/>
-      <c r="AF35" s="6"/>
-      <c r="AG35" s="6"/>
-      <c r="AH35" s="6"/>
-      <c r="AI35" s="6"/>
-      <c r="AJ35" s="6"/>
-      <c r="AK35" s="6"/>
-      <c r="AL35" s="6"/>
-      <c r="AM35" s="6"/>
-      <c r="AN35" s="6"/>
-      <c r="AO35" s="6"/>
-      <c r="AP35" s="6"/>
-      <c r="AQ35" s="7"/>
-    </row>
-    <row r="36" spans="1:43">
-      <c r="A36" s="5"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="6"/>
-      <c r="O36" s="6"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="6"/>
-      <c r="T36" s="6"/>
-      <c r="U36" s="6"/>
-      <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-      <c r="X36" s="6"/>
-      <c r="Y36" s="6"/>
-      <c r="Z36" s="6"/>
-      <c r="AA36" s="6"/>
-      <c r="AB36" s="6"/>
-      <c r="AC36" s="6"/>
-      <c r="AD36" s="6"/>
-      <c r="AE36" s="6"/>
-      <c r="AF36" s="6"/>
-      <c r="AG36" s="6"/>
-      <c r="AH36" s="6"/>
-      <c r="AI36" s="6"/>
-      <c r="AJ36" s="6"/>
-      <c r="AK36" s="6"/>
-      <c r="AL36" s="6"/>
-      <c r="AM36" s="6"/>
-      <c r="AN36" s="6"/>
-      <c r="AO36" s="6"/>
-      <c r="AP36" s="6"/>
-      <c r="AQ36" s="7"/>
-    </row>
-    <row r="37" spans="1:43">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="6"/>
-      <c r="K37" s="6"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-      <c r="N37" s="6"/>
-      <c r="O37" s="6"/>
-      <c r="P37" s="6"/>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="6"/>
-      <c r="T37" s="6"/>
-      <c r="U37" s="6"/>
-      <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-      <c r="X37" s="6"/>
-      <c r="Y37" s="6"/>
-      <c r="Z37" s="6"/>
-      <c r="AA37" s="6"/>
-      <c r="AB37" s="6"/>
-      <c r="AC37" s="6"/>
-      <c r="AD37" s="6"/>
-      <c r="AE37" s="6"/>
-      <c r="AF37" s="6"/>
-      <c r="AG37" s="6"/>
-      <c r="AH37" s="6"/>
-      <c r="AI37" s="6"/>
-      <c r="AJ37" s="6"/>
-      <c r="AK37" s="6"/>
-      <c r="AL37" s="6"/>
-      <c r="AM37" s="6"/>
-      <c r="AN37" s="6"/>
-      <c r="AO37" s="6"/>
-      <c r="AP37" s="6"/>
-      <c r="AQ37" s="7"/>
-    </row>
-    <row r="38" spans="1:43">
-      <c r="A38" s="5"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-      <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-      <c r="X38" s="6"/>
-      <c r="Y38" s="6"/>
-      <c r="Z38" s="6"/>
-      <c r="AA38" s="6"/>
-      <c r="AB38" s="6"/>
-      <c r="AC38" s="6"/>
-      <c r="AD38" s="6"/>
-      <c r="AE38" s="6"/>
-      <c r="AF38" s="6"/>
-      <c r="AG38" s="6"/>
-      <c r="AH38" s="6"/>
-      <c r="AI38" s="6"/>
-      <c r="AJ38" s="6"/>
-      <c r="AK38" s="6"/>
-      <c r="AL38" s="6"/>
-      <c r="AM38" s="6"/>
-      <c r="AN38" s="6"/>
-      <c r="AO38" s="6"/>
-      <c r="AP38" s="6"/>
-      <c r="AQ38" s="7"/>
-    </row>
-    <row r="39" spans="1:43">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="6"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
-      <c r="I39" s="6"/>
-      <c r="J39" s="6"/>
-      <c r="K39" s="6"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6"/>
-      <c r="P39" s="6"/>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="6"/>
-      <c r="T39" s="6"/>
-      <c r="U39" s="6"/>
-      <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-      <c r="X39" s="6"/>
-      <c r="Y39" s="6"/>
-      <c r="Z39" s="6"/>
-      <c r="AA39" s="6"/>
-      <c r="AB39" s="6"/>
-      <c r="AC39" s="6"/>
-      <c r="AD39" s="6"/>
-      <c r="AE39" s="6"/>
-      <c r="AF39" s="6"/>
-      <c r="AG39" s="6"/>
-      <c r="AH39" s="6"/>
-      <c r="AI39" s="6"/>
-      <c r="AJ39" s="6"/>
-      <c r="AK39" s="6"/>
-      <c r="AL39" s="6"/>
-      <c r="AM39" s="6"/>
-      <c r="AN39" s="6"/>
-      <c r="AO39" s="6"/>
-      <c r="AP39" s="6"/>
-      <c r="AQ39" s="7"/>
-    </row>
-    <row r="40" spans="1:43">
-      <c r="A40" s="5"/>
-      <c r="B40" s="6"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
-      <c r="Y40" s="6"/>
-      <c r="Z40" s="6"/>
-      <c r="AA40" s="6"/>
-      <c r="AB40" s="6"/>
-      <c r="AC40" s="6"/>
-      <c r="AD40" s="6"/>
-      <c r="AE40" s="6"/>
-      <c r="AF40" s="6"/>
-      <c r="AG40" s="6"/>
-      <c r="AH40" s="6"/>
-      <c r="AI40" s="6"/>
-      <c r="AJ40" s="6"/>
-      <c r="AK40" s="6"/>
-      <c r="AL40" s="6"/>
-      <c r="AM40" s="6"/>
-      <c r="AN40" s="6"/>
-      <c r="AO40" s="6"/>
-      <c r="AP40" s="6"/>
-      <c r="AQ40" s="7"/>
-    </row>
-    <row r="41" spans="1:43">
-      <c r="A41" s="8"/>
-      <c r="B41" s="9"/>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
-      <c r="Y41" s="9"/>
-      <c r="Z41" s="9"/>
-      <c r="AA41" s="9"/>
-      <c r="AB41" s="9"/>
-      <c r="AC41" s="9"/>
-      <c r="AD41" s="9"/>
-      <c r="AE41" s="9"/>
-      <c r="AF41" s="9"/>
-      <c r="AG41" s="9"/>
-      <c r="AH41" s="9"/>
-      <c r="AI41" s="9"/>
-      <c r="AJ41" s="9"/>
-      <c r="AK41" s="9"/>
-      <c r="AL41" s="9"/>
-      <c r="AM41" s="9"/>
-      <c r="AN41" s="9"/>
-      <c r="AO41" s="9"/>
-      <c r="AP41" s="9"/>
-      <c r="AQ41" s="10"/>
+      <c r="A32" s="8"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AB32" s="9"/>
+      <c r="AC32" s="9"/>
+      <c r="AD32" s="9"/>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
+      <c r="AK32" s="9"/>
+      <c r="AL32" s="9"/>
+      <c r="AM32" s="9"/>
+      <c r="AN32" s="9"/>
+      <c r="AO32" s="9"/>
+      <c r="AP32" s="9"/>
+      <c r="AQ32" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -7906,52 +6063,52 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
-      <c r="B3" t="s">
+    <row r="4" spans="2:2">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="2:2">
-      <c r="B4" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
-      <c r="B5" t="s">
+    <row r="6" spans="2:2">
+      <c r="B6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="2:2">
-      <c r="B6" t="s">
+    <row r="7" spans="2:2">
+      <c r="B7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" t="s">
+    <row r="8" spans="2:2">
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2">
+      <c r="B9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="2:2">
-      <c r="B9" t="s">
+    <row r="10" spans="2:2">
+      <c r="B10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:2">
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
